--- a/medicine/Soins infirmiers et profession infirmière/Institut_Hédi-Raïs_d'ophtalmologie_de_Tunis/Institut_Hédi-Raïs_d'ophtalmologie_de_Tunis.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Institut_Hédi-Raïs_d'ophtalmologie_de_Tunis/Institut_Hédi-Raïs_d'ophtalmologie_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_H%C3%A9di-Ra%C3%AFs_d%27ophtalmologie_de_Tunis</t>
+          <t>Institut_Hédi-Raïs_d'ophtalmologie_de_Tunis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut Hédi-Raïs d'ophtalmologie de Tunis est un hôpital universitaire tunisien spécialisé en ophtalmologie.
-Cet institut se trouve sur le boulevard du 9-Avril 1938, dans le quartier de Bab Saadoun à Tunis, à proximité de l'hôpital des enfants Béchir-Hamza, de l'Institut Salah-Azaïz[1] et du ministère de la Santé.
+Cet institut se trouve sur le boulevard du 9-Avril 1938, dans le quartier de Bab Saadoun à Tunis, à proximité de l'hôpital des enfants Béchir-Hamza, de l'Institut Salah-Azaïz et du ministère de la Santé.
 Il comporte des services d'ophtalmologie, de chirurgie oculaire, d'imagerie médicale ainsi que des laboratoires.  
 </t>
         </is>
